--- a/Magic 8 Ball Answers.xlsx
+++ b/Magic 8 Ball Answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Magic 8-Ball\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Magic 8 Ball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5116FFE8-4DF3-451D-A68A-36ACED0F99C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D07289-0C71-4B4E-B134-9101633D6448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B918F773-97DF-407C-A83D-CAD1937955E1}"/>
+    <workbookView xWindow="28680" yWindow="-4125" windowWidth="29040" windowHeight="15840" xr2:uid="{B918F773-97DF-407C-A83D-CAD1937955E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Magic Answers" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,13 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -127,13 +134,13 @@
     <t>Without a doubt</t>
   </si>
   <si>
-    <t>Yes – definitely</t>
-  </si>
-  <si>
     <t>You may rely on it</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Yes, definitely</t>
   </si>
 </sst>
 </file>
@@ -521,7 +528,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +694,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,12 +702,12 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <f>SUBTOTAL(103,Answers[Answer])</f>

--- a/Magic 8 Ball Answers.xlsx
+++ b/Magic 8 Ball Answers.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Magic 8 Ball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D07289-0C71-4B4E-B134-9101633D6448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C31B999-2072-4B9E-A4D9-EDBBDCCAE6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4125" windowWidth="29040" windowHeight="15840" xr2:uid="{B918F773-97DF-407C-A83D-CAD1937955E1}"/>
+    <workbookView xWindow="28680" yWindow="-4125" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B918F773-97DF-407C-A83D-CAD1937955E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Magic Answers" sheetId="1" r:id="rId1"/>
-    <sheet name="Answer Types" sheetId="2" r:id="rId2"/>
+    <sheet name="French Answers" sheetId="3" r:id="rId2"/>
+    <sheet name="Answer Types" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="AnswerTypeList" localSheetId="1">AnswerTypes[Type]</definedName>
     <definedName name="AnswerTypeList">AnswerTypes[Type]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>Type</t>
   </si>
@@ -141,6 +143,117 @@
   </si>
   <si>
     <t>Yes, definitely</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>Essaye plus tard</t>
+  </si>
+  <si>
+    <t>Essaye encore</t>
+  </si>
+  <si>
+    <t>Pas d'avis</t>
+  </si>
+  <si>
+    <t>Une chance sur deux</t>
+  </si>
+  <si>
+    <t>Repose ta question</t>
+  </si>
+  <si>
+    <t>Try later</t>
+  </si>
+  <si>
+    <t>Try again</t>
+  </si>
+  <si>
+    <t>No opinion</t>
+  </si>
+  <si>
+    <t>One chance in two</t>
+  </si>
+  <si>
+    <t>Ask your question again</t>
+  </si>
+  <si>
+    <t>D'après moi oui</t>
+  </si>
+  <si>
+    <t>C'est certain</t>
+  </si>
+  <si>
+    <t>Oui absolument</t>
+  </si>
+  <si>
+    <t>Tu peux compter dessus</t>
+  </si>
+  <si>
+    <t>Sans aucun doute</t>
+  </si>
+  <si>
+    <t>Très probable</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>C'est bien parti</t>
+  </si>
+  <si>
+    <t>C'est ton destin</t>
+  </si>
+  <si>
+    <t>Le sort en est jeté</t>
+  </si>
+  <si>
+    <t>In my opinion yes</t>
+  </si>
+  <si>
+    <t>That's for sure</t>
+  </si>
+  <si>
+    <t>Yes absolutely</t>
+  </si>
+  <si>
+    <t>You can count on it</t>
+  </si>
+  <si>
+    <t>Very likely</t>
+  </si>
+  <si>
+    <t>It's off to a good start</t>
+  </si>
+  <si>
+    <t>This is your destiny</t>
+  </si>
+  <si>
+    <t>The fate is cast</t>
+  </si>
+  <si>
+    <t>C'est non</t>
+  </si>
+  <si>
+    <t>Peu probable</t>
+  </si>
+  <si>
+    <t>Faut pas rêver</t>
+  </si>
+  <si>
+    <t>N'y compte pas</t>
+  </si>
+  <si>
+    <t>Impossible</t>
+  </si>
+  <si>
+    <t>It's no</t>
+  </si>
+  <si>
+    <t>Unlikely</t>
+  </si>
+  <si>
+    <t>Don't dream</t>
   </si>
 </sst>
 </file>
@@ -207,6 +320,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E19C087A-C713-400A-A138-EDE171E7B5C0}" name="Answers5" displayName="Answers5" ref="A1:C22" totalsRowCount="1">
+  <autoFilter ref="A1:C21" xr:uid="{BFE7C605-0E91-4F0B-B6F5-A081EC4E4D44}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{731A6A04-0FE8-4EB5-A222-64CE42424449}" name="Type" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{B4A28697-597D-4E5E-B357-B75C43402D12}" name="Answer" totalsRowFunction="count"/>
+    <tableColumn id="3" xr3:uid="{A0F98FE7-DB45-4FFE-8EBE-90DFA3A9D296}" name="Translation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69AA0627-EE23-4805-90A6-4A5315B98414}" name="AnswerTypes" displayName="AnswerTypes" ref="A1:B4" totalsRowShown="0">
   <autoFilter ref="A1:B4" xr:uid="{6B34A50D-E5B5-48F8-B6D7-4646208F49AE}"/>
   <tableColumns count="2">
@@ -217,7 +342,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4ED75604-023A-41C2-842E-BFB639704AC6}" name="AnswerSynonyms" displayName="AnswerSynonyms" ref="A6:B19" totalsRowShown="0">
   <autoFilter ref="A6:B19" xr:uid="{9B4C0F77-C206-48DF-8026-D0485FE17AF2}"/>
   <tableColumns count="2">
@@ -524,10 +649,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EEF0BB-91B6-4B91-B126-EEF101A3CBAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EEF0BB-91B6-4B91-B126-EEF101A3CBAC}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -721,13 +846,282 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5C2F61-2374-46C7-BA67-66F25BFAD959}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <f>SUBTOTAL(103,Answers5[Answer])</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Answer Type" prompt="Select whether the Answer is Negative, Neutral or Positive" sqref="A2:A21" xr:uid="{9A25780C-AC16-4D1A-A6C5-4E85E02AD20F}">
+      <formula1>AnswerTypeList</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330989E8-1C79-4EFD-A7D5-8CBC6CCBAA45}">
   <dimension ref="A1:B19"/>
   <sheetViews>
